--- a/10-razpredelnice/smucanje.xlsx
+++ b/10-razpredelnice/smucanje.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianj\Documents\FMF\rp\racunalniski-praktikum\10-razpredelnice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E49C22BB-8269-4E3B-BBB8-E3212792457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D8414-A07F-4E38-B3D6-8C3AD4D1DB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{79E1E40A-3825-4DA9-AD24-0E2C696913A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79E1E40A-3825-4DA9-AD24-0E2C696913A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Podatki" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="75">
   <si>
     <t>Leto</t>
   </si>
@@ -277,9 +277,6 @@
   </si>
   <si>
     <t>skupaj</t>
-  </si>
-  <si>
-    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -317,7 +314,6 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -325,6 +321,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -352,8 +349,1070 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[smucanje.xlsx]Zmage!PivotTable1</c:name>
+    <c:fmtId val="18"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Zmage!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>moški</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Zmage!$A$5:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Avstrija</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Švica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Švedska</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italija</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norveška</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Francija</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hrvaška</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nemčija</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Liechtenstein</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kanada</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Slovenija</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Zmage!$B$5:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D324-49FB-81B8-DC364055B07A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Zmage!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ženska</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Zmage!$A$5:$A$18</c:f>
+              <c:strCache>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>Avstrija</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Švica</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>ZDA</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Švedska</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Italija</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Norveška</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Luxembourg</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Francija</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hrvaška</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Nemčija</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Liechtenstein</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Kanada</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Slovenija</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Zmage!$C$5:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D324-49FB-81B8-DC364055B07A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1978108207"/>
+        <c:axId val="1978111087"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1978108207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1978111087"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1978111087"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sl-SI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1978108207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sl-SI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="sl-SI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1082040</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4693B94C-0D5F-0F03-ED3F-A208E1E58B5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="tianj" refreshedDate="45632.895091435188" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="104" xr:uid="{CBBA96CB-5218-45F5-BC07-0FF75AE5CC21}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="tianj" refreshedDate="45635.757746990741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="104" xr:uid="{CBBA96CB-5218-45F5-BC07-0FF75AE5CC21}">
   <cacheSource type="worksheet">
     <worksheetSource name="smucanje"/>
   </cacheSource>
@@ -444,7 +1503,7 @@
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
+      <x14:pivotCacheDefinition pivotCacheId="463311220"/>
     </ext>
   </extLst>
 </pivotCacheDefinition>
@@ -1080,11 +2139,562 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C781147C-5C31-4468-A16F-8D071475E909}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zmagovalec">
-  <location ref="F3:G59" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5948F897-770C-4670-80C2-914BE46A8C87}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="skupaj" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Država" colHeaderCaption="Spol">
+  <location ref="A3:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="14">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="14">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="3"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Število zmag" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="36">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="5" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="12" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="13" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="15" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="17" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C781147C-5C31-4468-A16F-8D071475E909}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zmagovalec">
+  <location ref="F3:G34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0" measureFilter="1" sortType="descending">
       <items count="54">
         <item x="19"/>
         <item x="12"/>
@@ -1141,8 +2751,17 @@
         <item x="36"/>
         <item t="default"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField showAll="0">
       <items count="14">
         <item x="1"/>
         <item x="0"/>
@@ -1172,27 +2791,18 @@
     <field x="3"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="56">
+  <rowItems count="31">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x/>
+      <x v="30"/>
     </i>
     <i r="1">
-      <x v="1"/>
+      <x v="29"/>
     </i>
     <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i r="1">
-      <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="11"/>
+      <x v="46"/>
     </i>
     <i r="1">
       <x v="14"/>
@@ -1201,10 +2811,22 @@
       <x v="16"/>
     </i>
     <i r="1">
+      <x v="44"/>
+    </i>
+    <i r="1">
       <x v="17"/>
     </i>
     <i r="1">
-      <x v="18"/>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
     </i>
     <i r="1">
       <x v="20"/>
@@ -1212,131 +2834,53 @@
     <i r="1">
       <x v="21"/>
     </i>
-    <i r="1">
-      <x v="23"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
-    </i>
-    <i r="1">
-      <x v="28"/>
-    </i>
-    <i r="1">
-      <x v="29"/>
-    </i>
-    <i r="1">
-      <x v="30"/>
-    </i>
-    <i r="1">
-      <x v="40"/>
-    </i>
-    <i r="1">
-      <x v="42"/>
-    </i>
-    <i r="1">
-      <x v="44"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-    </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="2"/>
+      <x v="26"/>
     </i>
     <i r="1">
-      <x v="4"/>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
     </i>
     <i r="1">
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
       <x v="12"/>
     </i>
     <i r="1">
-      <x v="13"/>
-    </i>
-    <i r="1">
-      <x v="15"/>
-    </i>
-    <i r="1">
-      <x v="19"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="27"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
+      <x v="6"/>
     </i>
     <i r="1">
       <x v="32"/>
     </i>
     <i r="1">
-      <x v="33"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-    </i>
-    <i r="1">
-      <x v="35"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="51"/>
-    </i>
-    <i r="1">
-      <x v="52"/>
+      <x v="22"/>
     </i>
     <i t="grand">
       <x/>
@@ -1345,178 +2889,21 @@
   <colItems count="1">
     <i/>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
   <dataFields count="1">
     <dataField name="Število zmag" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5948F897-770C-4670-80C2-914BE46A8C87}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="skupaj" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Država" colHeaderCaption="Spol">
-  <location ref="A3:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0">
-      <items count="54">
-        <item x="19"/>
-        <item x="12"/>
-        <item x="41"/>
-        <item x="6"/>
-        <item x="38"/>
-        <item x="45"/>
-        <item x="50"/>
-        <item x="27"/>
-        <item x="26"/>
-        <item x="18"/>
-        <item x="17"/>
-        <item x="20"/>
-        <item x="32"/>
-        <item x="24"/>
-        <item x="2"/>
-        <item x="30"/>
-        <item x="15"/>
-        <item x="4"/>
-        <item x="21"/>
-        <item x="43"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="39"/>
-        <item x="11"/>
-        <item x="51"/>
-        <item x="13"/>
-        <item x="47"/>
-        <item x="29"/>
-        <item x="14"/>
-        <item x="9"/>
-        <item x="22"/>
-        <item x="48"/>
-        <item x="35"/>
-        <item x="31"/>
-        <item x="44"/>
-        <item x="34"/>
-        <item x="25"/>
-        <item x="52"/>
-        <item x="23"/>
-        <item x="46"/>
-        <item x="10"/>
-        <item x="40"/>
-        <item x="5"/>
-        <item x="37"/>
-        <item x="7"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="42"/>
-        <item x="28"/>
-        <item x="16"/>
-        <item x="33"/>
-        <item x="49"/>
-        <item x="36"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="14">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="11"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="14">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="3"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Število zmag" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="1" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="1"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -1873,8 +3260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5325467-4372-4123-A1D9-ACEC331A1BB8}">
   <dimension ref="B2:E106"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1903,13 +3290,13 @@
       <c r="B3">
         <v>1966</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1917,13 +3304,13 @@
       <c r="B4">
         <v>1967</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1931,13 +3318,13 @@
       <c r="B5">
         <v>1968</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1945,13 +3332,13 @@
       <c r="B6">
         <v>1969</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1959,13 +3346,13 @@
       <c r="B7">
         <v>1970</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1973,13 +3360,13 @@
       <c r="B8">
         <v>1971</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1987,13 +3374,13 @@
       <c r="B9">
         <v>1972</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2001,13 +3388,13 @@
       <c r="B10">
         <v>1973</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2015,13 +3402,13 @@
       <c r="B11">
         <v>1974</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2029,13 +3416,13 @@
       <c r="B12">
         <v>1975</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2043,13 +3430,13 @@
       <c r="B13">
         <v>1976</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2057,13 +3444,13 @@
       <c r="B14">
         <v>1977</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2071,13 +3458,13 @@
       <c r="B15">
         <v>1978</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2085,13 +3472,13 @@
       <c r="B16">
         <v>1979</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2099,13 +3486,13 @@
       <c r="B17">
         <v>1980</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2113,13 +3500,13 @@
       <c r="B18">
         <v>1981</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2127,13 +3514,13 @@
       <c r="B19">
         <v>1982</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2141,13 +3528,13 @@
       <c r="B20">
         <v>1983</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2155,13 +3542,13 @@
       <c r="B21">
         <v>1984</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2169,13 +3556,13 @@
       <c r="B22">
         <v>1985</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2183,13 +3570,13 @@
       <c r="B23">
         <v>1986</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2197,13 +3584,13 @@
       <c r="B24">
         <v>1987</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2211,13 +3598,13 @@
       <c r="B25">
         <v>1988</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2225,13 +3612,13 @@
       <c r="B26">
         <v>1989</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2239,13 +3626,13 @@
       <c r="B27">
         <v>1990</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2253,13 +3640,13 @@
       <c r="B28">
         <v>1991</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2267,13 +3654,13 @@
       <c r="B29">
         <v>1992</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2281,13 +3668,13 @@
       <c r="B30">
         <v>1993</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2295,13 +3682,13 @@
       <c r="B31">
         <v>1994</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2309,13 +3696,13 @@
       <c r="B32">
         <v>1995</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2323,13 +3710,13 @@
       <c r="B33">
         <v>1996</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2337,13 +3724,13 @@
       <c r="B34">
         <v>1997</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2351,13 +3738,13 @@
       <c r="B35">
         <v>1998</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2365,13 +3752,13 @@
       <c r="B36">
         <v>1999</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2379,13 +3766,13 @@
       <c r="B37">
         <v>2000</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2393,13 +3780,13 @@
       <c r="B38">
         <v>2001</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" t="s">
         <v>30</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2407,13 +3794,13 @@
       <c r="B39">
         <v>2002</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2421,13 +3808,13 @@
       <c r="B40">
         <v>2003</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2435,13 +3822,13 @@
       <c r="B41">
         <v>2004</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2449,13 +3836,13 @@
       <c r="B42">
         <v>2005</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" t="s">
         <v>32</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2463,13 +3850,13 @@
       <c r="B43">
         <v>2006</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" t="s">
         <v>33</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2477,13 +3864,13 @@
       <c r="B44">
         <v>2007</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2491,13 +3878,13 @@
       <c r="B45">
         <v>2008</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2505,13 +3892,13 @@
       <c r="B46">
         <v>2009</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" t="s">
         <v>34</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" t="s">
         <v>15</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2519,13 +3906,13 @@
       <c r="B47">
         <v>2010</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" t="s">
         <v>35</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" t="s">
         <v>36</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2533,13 +3920,13 @@
       <c r="B48">
         <v>2011</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" t="s">
         <v>37</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" t="s">
         <v>8</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2547,13 +3934,13 @@
       <c r="B49">
         <v>2012</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" t="s">
         <v>8</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2561,13 +3948,13 @@
       <c r="B50">
         <v>2013</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" t="s">
         <v>37</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" t="s">
         <v>8</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2575,13 +3962,13 @@
       <c r="B51">
         <v>2014</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" t="s">
         <v>37</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2589,13 +3976,13 @@
       <c r="B52">
         <v>2015</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2603,13 +3990,13 @@
       <c r="B53">
         <v>2016</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2617,13 +4004,13 @@
       <c r="B54">
         <v>2017</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>37</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2631,13 +4018,13 @@
       <c r="B55">
         <v>1966</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>38</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>39</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2645,13 +4032,13 @@
       <c r="B56">
         <v>1967</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>38</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>39</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2659,13 +4046,13 @@
       <c r="B57">
         <v>1968</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>8</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2673,13 +4060,13 @@
       <c r="B58">
         <v>1969</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" t="s">
         <v>42</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2687,13 +4074,13 @@
       <c r="B59">
         <v>1970</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" t="s">
         <v>43</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2701,13 +4088,13 @@
       <c r="B60">
         <v>1971</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" t="s">
         <v>8</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2715,13 +4102,13 @@
       <c r="B61">
         <v>1972</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" t="s">
         <v>43</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2729,13 +4116,13 @@
       <c r="B62">
         <v>1973</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" t="s">
         <v>43</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" t="s">
         <v>8</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2743,13 +4130,13 @@
       <c r="B63">
         <v>1974</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" t="s">
         <v>44</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2757,13 +4144,13 @@
       <c r="B64">
         <v>1975</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" t="s">
         <v>45</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" t="s">
         <v>46</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2771,13 +4158,13 @@
       <c r="B65">
         <v>1976</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" t="s">
         <v>47</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" t="s">
         <v>15</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2785,13 +4172,13 @@
       <c r="B66">
         <v>1977</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" t="s">
         <v>48</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" t="s">
         <v>17</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2799,13 +4186,13 @@
       <c r="B67">
         <v>1978</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" t="s">
         <v>44</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" t="s">
         <v>8</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2813,13 +4200,13 @@
       <c r="B68">
         <v>1979</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" t="s">
         <v>48</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" t="s">
         <v>17</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2827,13 +4214,13 @@
       <c r="B69">
         <v>1980</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C69" t="s">
         <v>49</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2841,13 +4228,13 @@
       <c r="B70">
         <v>1981</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" t="s">
         <v>50</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" t="s">
         <v>15</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2855,13 +4242,13 @@
       <c r="B71">
         <v>1982</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C71" t="s">
         <v>51</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" t="s">
         <v>19</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2869,13 +4256,13 @@
       <c r="B72">
         <v>1983</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="C72" t="s">
         <v>50</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2883,13 +4270,13 @@
       <c r="B73">
         <v>1984</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="C73" t="s">
         <v>52</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" t="s">
         <v>15</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2897,13 +4284,13 @@
       <c r="B74">
         <v>1985</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="C74" t="s">
         <v>53</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" t="s">
         <v>15</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2911,13 +4298,13 @@
       <c r="B75">
         <v>1986</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="C75" t="s">
         <v>53</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" t="s">
         <v>15</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2925,13 +4312,13 @@
       <c r="B76">
         <v>1987</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="C76" t="s">
         <v>52</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" t="s">
         <v>15</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2939,13 +4326,13 @@
       <c r="B77">
         <v>1988</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C77" t="s">
         <v>54</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" t="s">
         <v>15</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2953,13 +4340,13 @@
       <c r="B78">
         <v>1989</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" t="s">
         <v>55</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" t="s">
         <v>8</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2967,13 +4354,13 @@
       <c r="B79">
         <v>1990</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="C79" t="s">
         <v>55</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2981,13 +4368,13 @@
       <c r="B80">
         <v>1991</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="C80" t="s">
         <v>55</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" t="s">
         <v>8</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2995,13 +4382,13 @@
       <c r="B81">
         <v>1992</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="C81" t="s">
         <v>56</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" t="s">
         <v>8</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3009,13 +4396,13 @@
       <c r="B82">
         <v>1993</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C82" t="s">
         <v>54</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="D82" t="s">
         <v>15</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3023,13 +4410,13 @@
       <c r="B83">
         <v>1994</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" t="s">
         <v>54</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" t="s">
         <v>15</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3037,13 +4424,13 @@
       <c r="B84">
         <v>1995</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" t="s">
         <v>57</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" t="s">
         <v>46</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3051,13 +4438,13 @@
       <c r="B85">
         <v>1996</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="C85" t="s">
         <v>58</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3065,13 +4452,13 @@
       <c r="B86">
         <v>1997</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" t="s">
         <v>57</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" t="s">
         <v>46</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3079,13 +4466,13 @@
       <c r="B87">
         <v>1998</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" t="s">
         <v>59</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" t="s">
         <v>8</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3093,13 +4480,13 @@
       <c r="B88">
         <v>1999</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C88" t="s">
         <v>60</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" t="s">
         <v>8</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3107,13 +4494,13 @@
       <c r="B89">
         <v>2000</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C89" t="s">
         <v>61</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" t="s">
         <v>36</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3121,13 +4508,13 @@
       <c r="B90">
         <v>2001</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="C90" t="s">
         <v>62</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" t="s">
         <v>8</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3135,13 +4522,13 @@
       <c r="B91">
         <v>2002</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="C91" t="s">
         <v>61</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" t="s">
         <v>36</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3149,13 +4536,13 @@
       <c r="B92">
         <v>2003</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" t="s">
         <v>63</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D92" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3163,13 +4550,13 @@
       <c r="B93">
         <v>2004</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C93" t="s">
         <v>63</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="D93" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3177,13 +4564,13 @@
       <c r="B94">
         <v>2005</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" t="s">
         <v>61</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" t="s">
         <v>36</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3191,13 +4578,13 @@
       <c r="B95">
         <v>2006</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="C95" t="s">
         <v>64</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" t="s">
         <v>8</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3205,13 +4592,13 @@
       <c r="B96">
         <v>2007</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C96" t="s">
         <v>65</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3219,13 +4606,13 @@
       <c r="B97">
         <v>2008</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C97" t="s">
         <v>65</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" t="s">
         <v>19</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3233,13 +4620,13 @@
       <c r="B98">
         <v>2009</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="C98" t="s">
         <v>65</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" t="s">
         <v>19</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3247,13 +4634,13 @@
       <c r="B99">
         <v>2010</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C99" t="s">
         <v>66</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" t="s">
         <v>46</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3261,13 +4648,13 @@
       <c r="B100">
         <v>2011</v>
       </c>
-      <c r="C100" s="1" t="s">
+      <c r="C100" t="s">
         <v>65</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" t="s">
         <v>19</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3275,13 +4662,13 @@
       <c r="B101">
         <v>2012</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" t="s">
         <v>67</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" t="s">
         <v>68</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3289,13 +4676,13 @@
       <c r="B102">
         <v>2013</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" t="s">
         <v>69</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D102" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3303,13 +4690,13 @@
       <c r="B103">
         <v>2014</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C103" t="s">
         <v>69</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" t="s">
         <v>8</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3317,13 +4704,13 @@
       <c r="B104">
         <v>2015</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" t="s">
         <v>70</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" t="s">
         <v>15</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3331,13 +4718,13 @@
       <c r="B105">
         <v>2016</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" t="s">
         <v>71</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" t="s">
         <v>19</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3345,13 +4732,13 @@
       <c r="B106">
         <v>2017</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" t="s">
         <v>71</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" t="s">
         <v>19</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3365,20 +4752,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20770693-CBA7-4755-B6B3-E296AD4A61C3}">
-  <dimension ref="A1:G59"/>
+  <dimension ref="A3:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -3386,22 +4773,14 @@
     <col min="59" max="59" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>75</v>
-      </c>
-    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G3" t="s">
@@ -3409,7 +4788,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -3421,611 +4800,412 @@
       <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="1">
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4">
+        <v>33</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>12</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4">
+        <v>3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4">
+        <v>6</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4">
+        <v>5</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4">
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1">
+      <c r="C18" s="4">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4">
+        <v>104</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="4">
         <v>2</v>
       </c>
-      <c r="D9" s="1">
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="4">
         <v>2</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1">
-        <v>5</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>5</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>6</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>12</v>
-      </c>
-      <c r="D16" s="1">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7</v>
-      </c>
-      <c r="D17" s="1">
-        <v>12</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="1">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1">
-        <v>52</v>
-      </c>
-      <c r="D18" s="1">
-        <v>104</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F21" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F22" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F23" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F24" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="F27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G27" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="1">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="G28" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
+      <c r="F29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
+      <c r="F30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F31" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="F31" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F32" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="F32" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="F33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F37" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G38" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F39" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F40" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F41" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F42" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F43" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F44" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F46" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F47" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F48" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F49" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G49" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F50" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G50" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F51" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F52" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F53" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G53" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F54" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F55" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F56" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F57" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F58" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F59" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="G59" s="1">
-        <v>104</v>
+      <c r="G34" s="4">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/10-razpredelnice/smucanje.xlsx
+++ b/10-razpredelnice/smucanje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tianj\Documents\FMF\rp\racunalniski-praktikum\10-razpredelnice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D8414-A07F-4E38-B3D6-8C3AD4D1DB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D7C569-18A7-45D3-81B1-CDB004076CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{79E1E40A-3825-4DA9-AD24-0E2C696913A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{79E1E40A-3825-4DA9-AD24-0E2C696913A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Podatki" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="76">
   <si>
     <t>Leto</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>skupaj</t>
+  </si>
+  <si>
+    <t>(Multiple Items)</t>
   </si>
 </sst>
 </file>
@@ -368,6 +371,120 @@
   </c:pivotSource>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="sl-SI"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -2139,7 +2256,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5948F897-770C-4670-80C2-914BE46A8C87}" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="skupaj" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Država" colHeaderCaption="Spol">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5948F897-770C-4670-80C2-914BE46A8C87}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="skupaj" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="19" rowHeaderCaption="Država" colHeaderCaption="Spol">
   <location ref="A3:D18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
@@ -2243,7 +2360,7 @@
   <dataFields count="1">
     <dataField name="Število zmag" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="36">
+  <chartFormats count="38">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
@@ -2665,6 +2782,30 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="17" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="18" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -2690,8 +2831,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C781147C-5C31-4468-A16F-8D071475E909}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zmagovalec">
-  <location ref="F3:G34" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C781147C-5C31-4468-A16F-8D071475E909}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Zmagovalec">
+  <location ref="F5:G31" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0" measureFilter="1" sortType="descending">
@@ -2761,13 +2902,13 @@
         </pivotArea>
       </autoSortScope>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="14">
         <item x="1"/>
         <item x="0"/>
         <item x="9"/>
         <item x="2"/>
-        <item x="10"/>
+        <item h="1" x="10"/>
         <item x="5"/>
         <item x="7"/>
         <item x="11"/>
@@ -2775,7 +2916,7 @@
         <item x="12"/>
         <item x="3"/>
         <item x="4"/>
-        <item x="6"/>
+        <item h="1" x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2791,7 +2932,7 @@
     <field x="3"/>
     <field x="1"/>
   </rowFields>
-  <rowItems count="31">
+  <rowItems count="26">
     <i>
       <x/>
     </i>
@@ -2811,19 +2952,13 @@
       <x v="16"/>
     </i>
     <i r="1">
-      <x v="44"/>
-    </i>
-    <i r="1">
       <x v="17"/>
-    </i>
-    <i r="1">
-      <x v="25"/>
     </i>
     <i r="1">
       <x/>
     </i>
     <i r="1">
-      <x v="10"/>
+      <x v="25"/>
     </i>
     <i r="1">
       <x v="49"/>
@@ -2838,13 +2973,7 @@
       <x v="1"/>
     </i>
     <i r="1">
-      <x v="26"/>
-    </i>
-    <i r="1">
       <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
     </i>
     <i r="1">
       <x v="52"/>
@@ -2853,34 +2982,31 @@
       <x v="19"/>
     </i>
     <i r="1">
-      <x v="38"/>
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
     </i>
     <i r="1">
       <x v="35"/>
     </i>
     <i r="1">
-      <x v="15"/>
+      <x v="32"/>
     </i>
     <i r="1">
       <x v="7"/>
     </i>
     <i r="1">
-      <x v="37"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
     </i>
     <i r="1">
       <x v="5"/>
     </i>
     <i r="1">
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="22"/>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
@@ -2889,6 +3015,9 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Število zmag" fld="1" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
@@ -3260,7 +3389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5325467-4372-4123-A1D9-ACEC331A1BB8}">
   <dimension ref="B2:E106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
@@ -4752,10 +4881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20770693-CBA7-4755-B6B3-E296AD4A61C3}">
-  <dimension ref="A3:G34"/>
+  <dimension ref="A3:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4766,7 +4895,7 @@
     <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="58" width="20.109375" bestFit="1" customWidth="1"/>
@@ -4781,10 +4910,10 @@
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -4800,106 +4929,99 @@
       <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="4">
-        <v>42</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5">
         <v>17</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5">
         <v>33</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="4">
-        <v>7</v>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6">
         <v>12</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6">
         <v>19</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
+      <c r="F6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="G6" s="4">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7">
         <v>12</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G7" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8">
         <v>6</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G8" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="D9">
         <v>6</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G9" s="4">
         <v>4</v>
@@ -4909,69 +5031,67 @@
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10">
         <v>5</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4">
+      <c r="D10">
         <v>5</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4">
+      <c r="D11">
         <v>5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G11" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12">
         <v>4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G12" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13">
         <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -4985,15 +5105,14 @@
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14">
         <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G14" s="4">
         <v>2</v>
@@ -5003,13 +5122,13 @@
       <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15">
         <v>3</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -5023,11 +5142,10 @@
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
+      <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16">
         <v>2</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -5041,11 +5159,10 @@
       <c r="A17" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17">
         <v>1</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -5059,25 +5176,25 @@
       <c r="A18" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18">
         <v>52</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18">
         <v>52</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18">
         <v>104</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G18" s="4">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F19" s="3" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="G19" s="4">
         <v>4</v>
@@ -5085,15 +5202,15 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F20" s="3" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G20" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F21" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G21" s="4">
         <v>3</v>
@@ -5101,7 +5218,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F22" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G22" s="4">
         <v>3</v>
@@ -5109,15 +5226,15 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F23" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F24" s="3" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G24" s="4">
         <v>2</v>
@@ -5125,7 +5242,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F25" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G25" s="4">
         <v>2</v>
@@ -5133,7 +5250,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F26" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G26" s="4">
         <v>2</v>
@@ -5141,7 +5258,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F27" s="3" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="G27" s="4">
         <v>2</v>
@@ -5149,7 +5266,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F28" s="3" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="G28" s="4">
         <v>2</v>
@@ -5165,42 +5282,18 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F30" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G30" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F31" s="3" t="s">
-        <v>69</v>
+      <c r="F31" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="G31" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="F32" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G32" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F33" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.3">
-      <c r="F34" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G34" s="4">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
